--- a/rider/monthly/2016_11.xlsx
+++ b/rider/monthly/2016_11.xlsx
@@ -321,85 +321,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>290</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>254</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>233</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>241</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>206</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>213</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>171</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>126</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>98</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>261</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>279</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>20</c:v>
@@ -523,88 +523,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>254</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>264</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.5</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>111.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>277.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>253.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>218.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>113.67</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75.67</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>224.67</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>253.33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>243.33</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.5</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>266.5</c:v>
+                  <c:v>266.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>220</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>243.25</c:v>
+                  <c:v>241.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>225.25</c:v>
+                  <c:v>233.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>118</c:v>
+                  <c:v>119.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.59999999999999</c:v>
+                  <c:v>80.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>265.4</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>231.8</c:v>
+                  <c:v>233.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>198.6</c:v>
+                  <c:v>197.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,10 +1251,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E2">
         <v>88.5</v>
@@ -1268,10 +1268,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D3">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E3">
         <v>88.66</v>
@@ -1285,10 +1285,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D4">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E4">
         <v>88.81999999999999</v>
@@ -1302,10 +1302,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>248.5</v>
+        <v>257.5</v>
       </c>
       <c r="E5">
         <v>88.98</v>
@@ -1319,7 +1319,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>111.5</v>
@@ -1336,10 +1336,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>89.31</v>
@@ -1353,10 +1353,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E8">
         <v>89.47</v>
@@ -1370,10 +1370,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D9">
-        <v>218.5</v>
+        <v>234.5</v>
       </c>
       <c r="E9">
         <v>89.63</v>
@@ -1387,10 +1387,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D10">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E10">
         <v>89.79000000000001</v>
@@ -1404,10 +1404,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D11">
-        <v>245</v>
+        <v>243.5</v>
       </c>
       <c r="E11">
         <v>89.95</v>
@@ -1421,10 +1421,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12">
-        <v>113.67</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>90.28</v>
@@ -1438,10 +1438,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>75.67</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>90.44</v>
@@ -1455,10 +1455,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D14">
-        <v>275</v>
+        <v>277.33</v>
       </c>
       <c r="E14">
         <v>90.59999999999999</v>
@@ -1472,10 +1472,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D15">
-        <v>224.67</v>
+        <v>227</v>
       </c>
       <c r="E15">
         <v>90.76000000000001</v>
@@ -1489,10 +1489,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D16">
-        <v>253.33</v>
+        <v>255.33</v>
       </c>
       <c r="E16">
         <v>90.92</v>
@@ -1506,10 +1506,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D17">
-        <v>248</v>
+        <v>249.33</v>
       </c>
       <c r="E17">
         <v>91.08</v>
@@ -1523,10 +1523,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D18">
-        <v>243.33</v>
+        <v>253.67</v>
       </c>
       <c r="E18">
         <v>91.23999999999999</v>
@@ -1540,10 +1540,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D19">
-        <v>116</v>
+        <v>116.5</v>
       </c>
       <c r="E19">
         <v>91.41</v>
@@ -1557,10 +1557,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D20">
-        <v>82.5</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>91.56999999999999</v>
@@ -1574,10 +1574,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D21">
-        <v>266.5</v>
+        <v>266.25</v>
       </c>
       <c r="E21">
         <v>91.73</v>
@@ -1591,10 +1591,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D22">
-        <v>220</v>
+        <v>222.5</v>
       </c>
       <c r="E22">
         <v>91.89</v>
@@ -1608,10 +1608,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D23">
-        <v>243.25</v>
+        <v>241.5</v>
       </c>
       <c r="E23">
         <v>92.05</v>
@@ -1625,10 +1625,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D24">
-        <v>225.25</v>
+        <v>233.25</v>
       </c>
       <c r="E24">
         <v>92.37</v>
@@ -1642,10 +1642,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D25">
-        <v>118</v>
+        <v>119.4</v>
       </c>
       <c r="E25">
         <v>92.54000000000001</v>
@@ -1659,10 +1659,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26">
-        <v>85.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="E26">
         <v>92.7</v>
@@ -1676,10 +1676,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D27">
-        <v>265.4</v>
+        <v>262.2</v>
       </c>
       <c r="E27">
         <v>92.86</v>
@@ -1693,10 +1693,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D28">
-        <v>231.8</v>
+        <v>233.4</v>
       </c>
       <c r="E28">
         <v>93.02</v>
@@ -1713,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="D29">
-        <v>198.6</v>
+        <v>197.2</v>
       </c>
       <c r="E29">
         <v>93.18000000000001</v>
